--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H2">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.339505972435</v>
+        <v>0.8938754294966669</v>
       </c>
       <c r="R2">
-        <v>3.055553751915</v>
+        <v>8.044878865470002</v>
       </c>
       <c r="S2">
-        <v>0.004877152862075883</v>
+        <v>0.01053348702062437</v>
       </c>
       <c r="T2">
-        <v>0.004877152862075883</v>
+        <v>0.01053348702062437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H3">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
-        <v>36.32801529574</v>
+        <v>51.55653920777334</v>
       </c>
       <c r="R3">
-        <v>326.95213766166</v>
+        <v>464.00885286996</v>
       </c>
       <c r="S3">
-        <v>0.5218679438903722</v>
+        <v>0.607545658659831</v>
       </c>
       <c r="T3">
-        <v>0.5218679438903721</v>
+        <v>0.607545658659831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H4">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>2.260050358381666</v>
+        <v>2.694821187895556</v>
       </c>
       <c r="R4">
-        <v>20.340453225435</v>
+        <v>24.25339069106</v>
       </c>
       <c r="S4">
-        <v>0.03246661905462384</v>
+        <v>0.03175595062679506</v>
       </c>
       <c r="T4">
-        <v>0.03246661905462384</v>
+        <v>0.03175595062679506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>18.948152</v>
       </c>
       <c r="I5">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J5">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.2471660107386667</v>
+        <v>0.4585389623493334</v>
       </c>
       <c r="R5">
-        <v>2.224494096648</v>
+        <v>4.126850661144</v>
       </c>
       <c r="S5">
-        <v>0.003550648632293968</v>
+        <v>0.005403453377253032</v>
       </c>
       <c r="T5">
-        <v>0.003550648632293968</v>
+        <v>0.005403453377253033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.948152</v>
       </c>
       <c r="I6">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J6">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
         <v>26.44740107015467</v>
@@ -818,10 +818,10 @@
         <v>238.026609631392</v>
       </c>
       <c r="S6">
-        <v>0.3799285676733389</v>
+        <v>0.3116579186638892</v>
       </c>
       <c r="T6">
-        <v>0.3799285676733388</v>
+        <v>0.3116579186638892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>1.645354357519111</v>
+        <v>1.382385588012444</v>
       </c>
       <c r="R7">
-        <v>14.808189217672</v>
+        <v>12.441470292112</v>
       </c>
       <c r="S7">
-        <v>0.02363624020028017</v>
+        <v>0.01629012295038317</v>
       </c>
       <c r="T7">
-        <v>0.02363624020028017</v>
+        <v>0.01629012295038317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H8">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I8">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J8">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N8">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q8">
-        <v>0.02044328790933333</v>
+        <v>0.02312754883433334</v>
       </c>
       <c r="R8">
-        <v>0.183989591184</v>
+        <v>0.208147939509</v>
       </c>
       <c r="S8">
-        <v>0.0002936768370292377</v>
+        <v>0.0002725365609416998</v>
       </c>
       <c r="T8">
-        <v>0.0002936768370292377</v>
+        <v>0.0002725365609416998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H9">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I9">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J9">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.561996</v>
       </c>
       <c r="O9">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P9">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q9">
-        <v>2.187484569237333</v>
+        <v>1.333940210134667</v>
       </c>
       <c r="R9">
-        <v>19.687361123136</v>
+        <v>12.005461891212</v>
       </c>
       <c r="S9">
-        <v>0.0314241795249869</v>
+        <v>0.01571923942204617</v>
       </c>
       <c r="T9">
-        <v>0.03142417952498689</v>
+        <v>0.01571923942204616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H10">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I10">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J10">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N10">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q10">
-        <v>0.1360885048195555</v>
+        <v>0.06972404270911112</v>
       </c>
       <c r="R10">
-        <v>1.224796543376</v>
+        <v>0.6275163843820001</v>
       </c>
       <c r="S10">
-        <v>0.001954971324998991</v>
+        <v>0.0008216327182361821</v>
       </c>
       <c r="T10">
-        <v>0.001954971324998991</v>
+        <v>0.0008216327182361819</v>
       </c>
     </row>
   </sheetData>
